--- a/observeddata/Ebola_Incidence_Data_Beni.xlsx
+++ b/observeddata/Ebola_Incidence_Data_Beni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\spatialEpisim2022\spatialEpisim\observeddata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F99CE28-5083-4E80-AED0-AC9C3CA6CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517DF51D-17E1-4D43-BE5B-C7530A202127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidence" sheetId="1" r:id="rId1"/>
@@ -433,17 +433,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -462,10 +462,10 @@
         <v>43682</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -473,10 +473,10 @@
         <v>43689</v>
       </c>
       <c r="C3" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -487,7 +487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -498,7 +498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -509,7 +509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -520,7 +520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -531,7 +531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -542,7 +542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -553,7 +553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -564,7 +564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -575,7 +575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -586,7 +586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -597,7 +597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -608,7 +608,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -619,7 +619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -630,7 +630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -641,7 +641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -652,7 +652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -663,7 +663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -674,7 +674,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -685,7 +685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -696,7 +696,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -707,7 +707,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -718,7 +718,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -729,7 +729,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -740,7 +740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -751,7 +751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -762,7 +762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -773,7 +773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -784,7 +784,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -795,7 +795,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -806,7 +806,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -817,7 +817,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -828,7 +828,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -839,7 +839,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -850,7 +850,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -861,7 +861,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -872,7 +872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -883,7 +883,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -894,7 +894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -905,7 +905,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -916,7 +916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -927,7 +927,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -938,7 +938,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -949,7 +949,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -960,7 +960,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -971,7 +971,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -982,7 +982,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -993,7 +993,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
